--- a/format.xlsx
+++ b/format.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F625970F-410C-8A48-923D-63C9BB9766F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +19,138 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+  <si>
+    <t>Sudent Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Major</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online/Offline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>project 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>project 3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>project 4</t>
+  </si>
+  <si>
+    <t>project 5</t>
+  </si>
+  <si>
+    <t>project 6</t>
+  </si>
+  <si>
+    <t>project 7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>project 8</t>
+  </si>
+  <si>
+    <t>project 9</t>
+  </si>
+  <si>
+    <t>project 10</t>
+  </si>
+  <si>
+    <t>project 11</t>
+  </si>
+  <si>
+    <t>project 12</t>
+  </si>
+  <si>
+    <t>project 13</t>
+  </si>
+  <si>
+    <t>project 14</t>
+  </si>
+  <si>
+    <t>project 15</t>
+  </si>
+  <si>
+    <t>project 16</t>
+  </si>
+  <si>
+    <t>project 17</t>
+  </si>
+  <si>
+    <t>Memo</t>
+  </si>
+  <si>
+    <t>ECE student requirement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME student requirement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSE student requirement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offline student requirement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0(ECE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0(Online)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1(ME)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2(MSE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(Offline)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +158,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +203,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +517,2726 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="21" max="21" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="5">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="5">
+        <v>5</v>
+      </c>
+      <c r="M8" s="5">
+        <v>7</v>
+      </c>
+      <c r="N8" s="5">
+        <v>3</v>
+      </c>
+      <c r="O8" s="6">
+        <v>4</v>
+      </c>
+      <c r="P8" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>1</v>
+      </c>
+      <c r="R8" s="5">
+        <v>2</v>
+      </c>
+      <c r="S8" s="5">
+        <v>10</v>
+      </c>
+      <c r="T8" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>7</v>
+      </c>
+      <c r="I9" s="5">
+        <v>6</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5">
+        <v>3</v>
+      </c>
+      <c r="L9" s="5">
+        <v>10</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5">
+        <v>5</v>
+      </c>
+      <c r="S9" s="5">
+        <v>4</v>
+      </c>
+      <c r="T9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
+        <v>3</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>4</v>
+      </c>
+      <c r="I11" s="5">
+        <v>6</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5">
+        <v>5</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6">
+        <v>7</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5">
+        <v>9</v>
+      </c>
+      <c r="R11" s="5">
+        <v>10</v>
+      </c>
+      <c r="S11" s="5">
+        <v>8</v>
+      </c>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
+        <v>9</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5">
+        <v>10</v>
+      </c>
+      <c r="J12" s="5">
+        <v>6</v>
+      </c>
+      <c r="K12" s="5">
+        <v>8</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5">
+        <v>7</v>
+      </c>
+      <c r="N12" s="5">
+        <v>2</v>
+      </c>
+      <c r="O12" s="6">
+        <v>4</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5">
+        <v>1</v>
+      </c>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5">
+        <v>5</v>
+      </c>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
+        <v>8</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5">
+        <v>6</v>
+      </c>
+      <c r="L13" s="5">
+        <v>9</v>
+      </c>
+      <c r="M13" s="5">
+        <v>5</v>
+      </c>
+      <c r="N13" s="5">
+        <v>10</v>
+      </c>
+      <c r="O13" s="6">
+        <v>4</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5">
+        <v>3</v>
+      </c>
+      <c r="R13" s="5">
+        <v>7</v>
+      </c>
+      <c r="S13" s="5">
+        <v>1</v>
+      </c>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <v>3</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>9</v>
+      </c>
+      <c r="I14" s="5">
+        <v>10</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5">
+        <v>2</v>
+      </c>
+      <c r="L14" s="5">
+        <v>6</v>
+      </c>
+      <c r="M14" s="5">
+        <v>5</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5">
+        <v>7</v>
+      </c>
+      <c r="T14" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2</v>
+      </c>
+      <c r="H15" s="5">
+        <v>8</v>
+      </c>
+      <c r="I15" s="5">
+        <v>3</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5">
+        <v>5</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5">
+        <v>4</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5">
+        <v>6</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
+        <v>5</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5">
+        <v>8</v>
+      </c>
+      <c r="K16" s="5">
+        <v>3</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5">
+        <v>4</v>
+      </c>
+      <c r="N16" s="5">
+        <v>9</v>
+      </c>
+      <c r="O16" s="6">
+        <v>10</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5">
+        <v>1</v>
+      </c>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5">
+        <v>2</v>
+      </c>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5">
+        <v>4</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>2</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5">
+        <v>3</v>
+      </c>
+      <c r="L17" s="5">
+        <v>7</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5">
+        <v>9</v>
+      </c>
+      <c r="E18" s="5">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5">
+        <v>2</v>
+      </c>
+      <c r="I18" s="5">
+        <v>3</v>
+      </c>
+      <c r="J18" s="5">
+        <v>4</v>
+      </c>
+      <c r="K18" s="5">
+        <v>5</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5">
+        <v>8</v>
+      </c>
+      <c r="N18" s="5">
+        <v>7</v>
+      </c>
+      <c r="O18" s="6">
+        <v>1</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5">
+        <v>6</v>
+      </c>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
+        <v>8</v>
+      </c>
+      <c r="G19" s="5">
+        <v>4</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2</v>
+      </c>
+      <c r="I19" s="5">
+        <v>3</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5">
+        <v>10</v>
+      </c>
+      <c r="M19" s="5">
+        <v>5</v>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5">
+        <v>7</v>
+      </c>
+      <c r="S19" s="5">
+        <v>6</v>
+      </c>
+      <c r="T19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5">
+        <v>8</v>
+      </c>
+      <c r="H20" s="5">
+        <v>9</v>
+      </c>
+      <c r="I20" s="5">
+        <v>10</v>
+      </c>
+      <c r="J20" s="5">
+        <v>4</v>
+      </c>
+      <c r="K20" s="5">
+        <v>7</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5">
+        <v>5</v>
+      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5">
+        <v>2</v>
+      </c>
+      <c r="R20" s="5">
+        <v>3</v>
+      </c>
+      <c r="S20" s="5">
+        <v>1</v>
+      </c>
+      <c r="T20" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
+        <v>6</v>
+      </c>
+      <c r="H21" s="5">
+        <v>8</v>
+      </c>
+      <c r="I21" s="5">
+        <v>7</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5">
+        <v>2</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5">
+        <v>3</v>
+      </c>
+      <c r="N21" s="5">
+        <v>9</v>
+      </c>
+      <c r="O21" s="6">
+        <v>10</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5">
+        <v>1</v>
+      </c>
+      <c r="R21" s="5">
+        <v>5</v>
+      </c>
+      <c r="S21" s="5">
+        <v>4</v>
+      </c>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5">
+        <v>4</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5">
+        <v>6</v>
+      </c>
+      <c r="N22" s="5">
+        <v>3</v>
+      </c>
+      <c r="O22" s="6">
+        <v>1</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5">
+        <v>5</v>
+      </c>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5">
+        <v>2</v>
+      </c>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="D23" s="5">
+        <v>5</v>
+      </c>
+      <c r="E23" s="5">
+        <v>4</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>7</v>
+      </c>
+      <c r="H23" s="5">
+        <v>8</v>
+      </c>
+      <c r="I23" s="5">
+        <v>10</v>
+      </c>
+      <c r="J23" s="5">
+        <v>2</v>
+      </c>
+      <c r="K23" s="5">
+        <v>6</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5">
+        <v>3</v>
+      </c>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5">
+        <v>9</v>
+      </c>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="D24" s="5">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5">
+        <v>6</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
+        <v>2</v>
+      </c>
+      <c r="L24" s="5">
+        <v>3</v>
+      </c>
+      <c r="M24" s="5">
+        <v>9</v>
+      </c>
+      <c r="N24" s="5">
+        <v>5</v>
+      </c>
+      <c r="O24" s="6">
+        <v>8</v>
+      </c>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5">
+        <v>4</v>
+      </c>
+      <c r="R24" s="5">
+        <v>7</v>
+      </c>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5">
+        <v>3</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5">
+        <v>9</v>
+      </c>
+      <c r="I25" s="5">
+        <v>10</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5">
+        <v>2</v>
+      </c>
+      <c r="L25" s="5">
+        <v>6</v>
+      </c>
+      <c r="M25" s="5">
+        <v>5</v>
+      </c>
+      <c r="N25" s="5"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5">
+        <v>7</v>
+      </c>
+      <c r="T25" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
+      <c r="F26" s="5">
+        <v>8</v>
+      </c>
+      <c r="G26" s="5">
+        <v>14</v>
+      </c>
+      <c r="H26" s="5">
+        <v>16</v>
+      </c>
+      <c r="I26" s="5">
+        <v>12</v>
+      </c>
+      <c r="J26" s="5">
+        <v>11</v>
+      </c>
+      <c r="K26" s="5">
+        <v>5</v>
+      </c>
+      <c r="L26" s="5">
+        <v>6</v>
+      </c>
+      <c r="M26" s="5">
+        <v>3</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="1:20" ht="16">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="D27" s="5">
+        <v>10</v>
+      </c>
+      <c r="E27" s="5">
+        <v>9</v>
+      </c>
+      <c r="F27" s="5">
+        <v>4</v>
+      </c>
+      <c r="G27" s="5">
+        <v>5</v>
+      </c>
+      <c r="H27" s="5">
+        <v>6</v>
+      </c>
+      <c r="I27" s="5">
+        <v>3</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="5">
+        <v>8</v>
+      </c>
+      <c r="L27" s="5">
+        <v>2</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28">
+        <v>21</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5">
+        <v>5</v>
+      </c>
+      <c r="G28" s="5">
+        <v>2</v>
+      </c>
+      <c r="H28" s="5">
+        <v>3</v>
+      </c>
+      <c r="I28" s="5">
+        <v>4</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5">
+        <v>8</v>
+      </c>
+      <c r="L28" s="5">
+        <v>6</v>
+      </c>
+      <c r="M28" s="5">
+        <v>7</v>
+      </c>
+      <c r="N28" s="5">
+        <v>9</v>
+      </c>
+      <c r="O28" s="6"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5">
+        <v>10</v>
+      </c>
+      <c r="T28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29">
+        <v>22</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5">
+        <v>7</v>
+      </c>
+      <c r="F29" s="5">
+        <v>3</v>
+      </c>
+      <c r="G29" s="5">
+        <v>10</v>
+      </c>
+      <c r="H29" s="5">
+        <v>9</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5">
+        <v>4</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5">
+        <v>6</v>
+      </c>
+      <c r="N29" s="5">
+        <v>1</v>
+      </c>
+      <c r="O29" s="6">
+        <v>5</v>
+      </c>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5">
+        <v>2</v>
+      </c>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5">
+        <v>8</v>
+      </c>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30">
+        <v>23</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5">
+        <v>4</v>
+      </c>
+      <c r="G30" s="5">
+        <v>5</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5">
+        <v>3</v>
+      </c>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5">
+        <v>6</v>
+      </c>
+      <c r="O30" s="6">
+        <v>7</v>
+      </c>
+      <c r="P30" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>8</v>
+      </c>
+      <c r="R30" s="5">
+        <v>9</v>
+      </c>
+      <c r="S30" s="5">
+        <v>10</v>
+      </c>
+      <c r="T30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31">
+        <v>24</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5">
+        <v>10</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5">
+        <v>9</v>
+      </c>
+      <c r="H31" s="5">
+        <v>5</v>
+      </c>
+      <c r="I31" s="5">
+        <v>7</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5">
+        <v>3</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5">
+        <v>4</v>
+      </c>
+      <c r="N31" s="5">
+        <v>8</v>
+      </c>
+      <c r="O31" s="6">
+        <v>6</v>
+      </c>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5">
+        <v>1</v>
+      </c>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5">
+        <v>2</v>
+      </c>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32">
+        <v>25</v>
+      </c>
+      <c r="D32" s="5">
+        <v>8</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5">
+        <v>2</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5">
+        <v>6</v>
+      </c>
+      <c r="I32" s="5">
+        <v>7</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5">
+        <v>3</v>
+      </c>
+      <c r="L32" s="5">
+        <v>4</v>
+      </c>
+      <c r="M32" s="5">
+        <v>10</v>
+      </c>
+      <c r="N32" s="5"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5">
+        <v>9</v>
+      </c>
+      <c r="T32" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33">
+        <v>26</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>2</v>
+      </c>
+      <c r="H33" s="5">
+        <v>9</v>
+      </c>
+      <c r="I33" s="5">
+        <v>6</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5">
+        <v>3</v>
+      </c>
+      <c r="L33" s="5">
+        <v>4</v>
+      </c>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5">
+        <v>7</v>
+      </c>
+      <c r="O33" s="6">
+        <v>10</v>
+      </c>
+      <c r="P33" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34">
+        <v>27</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5">
+        <v>10</v>
+      </c>
+      <c r="I34" s="5">
+        <v>9</v>
+      </c>
+      <c r="J34" s="5">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5">
+        <v>2</v>
+      </c>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5">
+        <v>7</v>
+      </c>
+      <c r="N34" s="5">
+        <v>5</v>
+      </c>
+      <c r="O34" s="6">
+        <v>4</v>
+      </c>
+      <c r="P34" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>3</v>
+      </c>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5">
+        <v>6</v>
+      </c>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35">
+        <v>28</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5">
+        <v>3</v>
+      </c>
+      <c r="I35" s="5">
+        <v>4</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5">
+        <v>1</v>
+      </c>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5">
+        <v>2</v>
+      </c>
+      <c r="N35" s="5"/>
+      <c r="O35" s="6">
+        <v>5</v>
+      </c>
+      <c r="P35" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>8</v>
+      </c>
+      <c r="R35" s="5">
+        <v>7</v>
+      </c>
+      <c r="S35" s="5">
+        <v>6</v>
+      </c>
+      <c r="T35" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36">
+        <v>29</v>
+      </c>
+      <c r="D36" s="5">
+        <v>9</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5">
+        <v>4</v>
+      </c>
+      <c r="G36" s="5">
+        <v>3</v>
+      </c>
+      <c r="H36" s="5">
+        <v>7</v>
+      </c>
+      <c r="I36" s="5">
+        <v>8</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5">
+        <v>2</v>
+      </c>
+      <c r="L36" s="5">
+        <v>5</v>
+      </c>
+      <c r="M36" s="5">
+        <v>10</v>
+      </c>
+      <c r="N36" s="5"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5">
+        <v>10</v>
+      </c>
+      <c r="F37" s="5">
+        <v>5</v>
+      </c>
+      <c r="G37" s="5">
+        <v>4</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5">
+        <v>2</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5">
+        <v>7</v>
+      </c>
+      <c r="L37" s="5">
+        <v>3</v>
+      </c>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5">
+        <v>1</v>
+      </c>
+      <c r="R37" s="5">
+        <v>8</v>
+      </c>
+      <c r="S37" s="5">
+        <v>9</v>
+      </c>
+      <c r="T37" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38">
+        <v>31</v>
+      </c>
+      <c r="D38" s="5">
+        <v>6</v>
+      </c>
+      <c r="E38" s="5">
+        <v>5</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5">
+        <v>7</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5">
+        <v>10</v>
+      </c>
+      <c r="K38" s="5">
+        <v>3</v>
+      </c>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5">
+        <v>4</v>
+      </c>
+      <c r="N38" s="5">
+        <v>8</v>
+      </c>
+      <c r="O38" s="6">
+        <v>9</v>
+      </c>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5">
+        <v>1</v>
+      </c>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5">
+        <v>2</v>
+      </c>
+      <c r="T38" s="5"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40">
+        <v>33</v>
+      </c>
+      <c r="D40" s="5">
+        <v>7</v>
+      </c>
+      <c r="E40" s="5">
+        <v>8</v>
+      </c>
+      <c r="F40" s="5">
+        <v>9</v>
+      </c>
+      <c r="G40" s="5">
+        <v>6</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5">
+        <v>10</v>
+      </c>
+      <c r="J40" s="5">
+        <v>3</v>
+      </c>
+      <c r="K40" s="5">
+        <v>4</v>
+      </c>
+      <c r="L40" s="5">
+        <v>5</v>
+      </c>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5">
+        <v>1</v>
+      </c>
+      <c r="R40" s="5">
+        <v>2</v>
+      </c>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41">
+        <v>34</v>
+      </c>
+      <c r="D41" s="5">
+        <v>6</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5">
+        <v>3</v>
+      </c>
+      <c r="O41" s="6">
+        <v>4</v>
+      </c>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5">
+        <v>2</v>
+      </c>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5">
+        <v>5</v>
+      </c>
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42">
+        <v>35</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5">
+        <v>7</v>
+      </c>
+      <c r="F42" s="5">
+        <v>9</v>
+      </c>
+      <c r="G42" s="5">
+        <v>10</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5">
+        <v>8</v>
+      </c>
+      <c r="K42" s="5">
+        <v>4</v>
+      </c>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5">
+        <v>3</v>
+      </c>
+      <c r="N42" s="5">
+        <v>6</v>
+      </c>
+      <c r="O42" s="6">
+        <v>5</v>
+      </c>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5">
+        <v>2</v>
+      </c>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5">
+        <v>1</v>
+      </c>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43">
+        <v>36</v>
+      </c>
+      <c r="D43" s="5">
+        <v>9</v>
+      </c>
+      <c r="E43" s="5">
+        <v>8</v>
+      </c>
+      <c r="F43" s="5">
+        <v>5</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1</v>
+      </c>
+      <c r="H43" s="5">
+        <v>3</v>
+      </c>
+      <c r="I43" s="5">
+        <v>4</v>
+      </c>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5">
+        <v>2</v>
+      </c>
+      <c r="L43" s="5">
+        <v>6</v>
+      </c>
+      <c r="M43" s="5">
+        <v>7</v>
+      </c>
+      <c r="N43" s="5"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5">
+        <v>10</v>
+      </c>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44">
+        <v>37</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+      <c r="G44" s="5">
+        <v>2</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5">
+        <v>3</v>
+      </c>
+      <c r="L44" s="5">
+        <v>5</v>
+      </c>
+      <c r="M44" s="5">
+        <v>8</v>
+      </c>
+      <c r="N44" s="5"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>9</v>
+      </c>
+      <c r="R44" s="5">
+        <v>10</v>
+      </c>
+      <c r="S44" s="5">
+        <v>6</v>
+      </c>
+      <c r="T44" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45">
+        <v>38</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5">
+        <v>2</v>
+      </c>
+      <c r="H45" s="5">
+        <v>9</v>
+      </c>
+      <c r="I45" s="5">
+        <v>6</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5">
+        <v>3</v>
+      </c>
+      <c r="L45" s="5">
+        <v>4</v>
+      </c>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5">
+        <v>7</v>
+      </c>
+      <c r="O45" s="6">
+        <v>10</v>
+      </c>
+      <c r="P45" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46">
+        <v>39</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2</v>
+      </c>
+      <c r="F46" s="5">
+        <v>3</v>
+      </c>
+      <c r="G46" s="5">
+        <v>7</v>
+      </c>
+      <c r="H46" s="5">
+        <v>8</v>
+      </c>
+      <c r="I46" s="5">
+        <v>9</v>
+      </c>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5">
+        <v>4</v>
+      </c>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5">
+        <v>10</v>
+      </c>
+      <c r="N46" s="5"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5">
+        <v>6</v>
+      </c>
+      <c r="T46" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47">
+        <v>40</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5">
+        <v>8</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5">
+        <v>9</v>
+      </c>
+      <c r="I47" s="5">
+        <v>10</v>
+      </c>
+      <c r="J47" s="5">
+        <v>1</v>
+      </c>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5">
+        <v>5</v>
+      </c>
+      <c r="N47" s="5">
+        <v>2</v>
+      </c>
+      <c r="O47" s="6">
+        <v>3</v>
+      </c>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5">
+        <v>4</v>
+      </c>
+      <c r="R47" s="5">
+        <v>7</v>
+      </c>
+      <c r="S47" s="5">
+        <v>6</v>
+      </c>
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48">
+        <v>41</v>
+      </c>
+      <c r="D48" s="5">
+        <v>4</v>
+      </c>
+      <c r="E48" s="5">
+        <v>13</v>
+      </c>
+      <c r="F48" s="5">
+        <v>3</v>
+      </c>
+      <c r="G48" s="5">
+        <v>6</v>
+      </c>
+      <c r="H48" s="5">
+        <v>5</v>
+      </c>
+      <c r="I48" s="5">
+        <v>1</v>
+      </c>
+      <c r="J48" s="5">
+        <v>9</v>
+      </c>
+      <c r="K48" s="5">
+        <v>10</v>
+      </c>
+      <c r="L48" s="5">
+        <v>2</v>
+      </c>
+      <c r="M48" s="5">
+        <v>8</v>
+      </c>
+      <c r="N48" s="5">
+        <v>7</v>
+      </c>
+      <c r="O48" s="6"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+    </row>
+    <row r="49" spans="1:20" ht="16">
+      <c r="A49">
+        <v>42</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5">
+        <v>7</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="5">
+        <v>2</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" s="5">
+        <v>6</v>
+      </c>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N49" s="5">
+        <v>10</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5">
+        <v>1</v>
+      </c>
+      <c r="T49" s="5"/>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50">
+        <v>43</v>
+      </c>
+      <c r="D50" s="5">
+        <v>9</v>
+      </c>
+      <c r="E50" s="5">
+        <v>3</v>
+      </c>
+      <c r="F50" s="5">
+        <v>4</v>
+      </c>
+      <c r="G50" s="5">
+        <v>13</v>
+      </c>
+      <c r="H50" s="5">
+        <v>17</v>
+      </c>
+      <c r="I50" s="5">
+        <v>16</v>
+      </c>
+      <c r="J50" s="5">
+        <v>1</v>
+      </c>
+      <c r="K50" s="5">
+        <v>2</v>
+      </c>
+      <c r="L50" s="5">
+        <v>14</v>
+      </c>
+      <c r="M50" s="5">
+        <v>5</v>
+      </c>
+      <c r="N50" s="5">
+        <v>6</v>
+      </c>
+      <c r="O50" s="6">
+        <v>8</v>
+      </c>
+      <c r="P50" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51">
+        <v>44</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5">
+        <v>4</v>
+      </c>
+      <c r="G51" s="5">
+        <v>8</v>
+      </c>
+      <c r="H51" s="5">
+        <v>3</v>
+      </c>
+      <c r="I51" s="5">
+        <v>2</v>
+      </c>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5">
+        <v>5</v>
+      </c>
+      <c r="M51" s="5">
+        <v>6</v>
+      </c>
+      <c r="N51" s="5">
+        <v>9</v>
+      </c>
+      <c r="O51" s="6">
+        <v>10</v>
+      </c>
+      <c r="P51" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52">
+        <v>45</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5">
+        <v>2</v>
+      </c>
+      <c r="H52" s="5">
+        <v>6</v>
+      </c>
+      <c r="I52" s="5">
+        <v>7</v>
+      </c>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5">
+        <v>3</v>
+      </c>
+      <c r="L52" s="5">
+        <v>5</v>
+      </c>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5">
+        <v>9</v>
+      </c>
+      <c r="O52" s="6">
+        <v>10</v>
+      </c>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5">
+        <v>8</v>
+      </c>
+      <c r="T52" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53">
+        <v>46</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5">
+        <v>4</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1</v>
+      </c>
+      <c r="I53" s="5">
+        <v>2</v>
+      </c>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5">
+        <v>3</v>
+      </c>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5">
+        <v>6</v>
+      </c>
+      <c r="N53" s="5">
+        <v>7</v>
+      </c>
+      <c r="O53" s="6"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5">
+        <v>8</v>
+      </c>
+      <c r="R53" s="5">
+        <v>10</v>
+      </c>
+      <c r="S53" s="5">
+        <v>5</v>
+      </c>
+      <c r="T53" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54">
+        <v>47</v>
+      </c>
+      <c r="D54" s="5">
+        <v>10</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5">
+        <v>5</v>
+      </c>
+      <c r="H54" s="5">
+        <v>8</v>
+      </c>
+      <c r="I54" s="5">
+        <v>9</v>
+      </c>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5">
+        <v>7</v>
+      </c>
+      <c r="L54" s="5">
+        <v>2</v>
+      </c>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5">
+        <v>4</v>
+      </c>
+      <c r="T54" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55">
+        <v>48</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5">
+        <v>3</v>
+      </c>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5">
+        <v>7</v>
+      </c>
+      <c r="J55" s="5">
+        <v>8</v>
+      </c>
+      <c r="K55" s="5">
+        <v>2</v>
+      </c>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5">
+        <v>4</v>
+      </c>
+      <c r="N55" s="5"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>10</v>
+      </c>
+      <c r="R55" s="5">
+        <v>5</v>
+      </c>
+      <c r="S55" s="5">
+        <v>6</v>
+      </c>
+      <c r="T55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56">
+        <v>49</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5">
+        <v>8</v>
+      </c>
+      <c r="G56" s="5">
+        <v>2</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5">
+        <v>6</v>
+      </c>
+      <c r="L56" s="5">
+        <v>9</v>
+      </c>
+      <c r="M56" s="5">
+        <v>5</v>
+      </c>
+      <c r="N56" s="5">
+        <v>10</v>
+      </c>
+      <c r="O56" s="6">
+        <v>4</v>
+      </c>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5">
+        <v>3</v>
+      </c>
+      <c r="R56" s="5">
+        <v>7</v>
+      </c>
+      <c r="S56" s="5">
+        <v>1</v>
+      </c>
+      <c r="T56" s="5"/>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57">
+        <v>50</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5">
+        <v>1</v>
+      </c>
+      <c r="G57" s="5">
+        <v>5</v>
+      </c>
+      <c r="H57" s="5">
+        <v>6</v>
+      </c>
+      <c r="I57" s="5">
+        <v>2</v>
+      </c>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5">
+        <v>3</v>
+      </c>
+      <c r="L57" s="5">
+        <v>4</v>
+      </c>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5">
+        <v>8</v>
+      </c>
+      <c r="O57" s="6"/>
+      <c r="P57" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>10</v>
+      </c>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58">
+        <v>51</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5">
+        <v>3</v>
+      </c>
+      <c r="G58" s="5">
+        <v>1</v>
+      </c>
+      <c r="H58" s="5">
+        <v>9</v>
+      </c>
+      <c r="I58" s="5">
+        <v>10</v>
+      </c>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5">
+        <v>2</v>
+      </c>
+      <c r="L58" s="5">
+        <v>6</v>
+      </c>
+      <c r="M58" s="5">
+        <v>5</v>
+      </c>
+      <c r="N58" s="5"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5">
+        <v>7</v>
+      </c>
+      <c r="T58" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59">
+        <v>52</v>
+      </c>
+      <c r="D59" s="5">
+        <v>14</v>
+      </c>
+      <c r="E59" s="5">
+        <v>13</v>
+      </c>
+      <c r="F59" s="5">
+        <v>10</v>
+      </c>
+      <c r="G59" s="5">
+        <v>8</v>
+      </c>
+      <c r="H59" s="5">
+        <v>11</v>
+      </c>
+      <c r="I59" s="5">
+        <v>9</v>
+      </c>
+      <c r="J59" s="5">
+        <v>3</v>
+      </c>
+      <c r="K59" s="5">
+        <v>1</v>
+      </c>
+      <c r="L59" s="5">
+        <v>16</v>
+      </c>
+      <c r="M59" s="5">
+        <v>2</v>
+      </c>
+      <c r="N59" s="5">
+        <v>5</v>
+      </c>
+      <c r="O59" s="6">
+        <v>4</v>
+      </c>
+      <c r="P59" s="5">
+        <v>17</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>7</v>
+      </c>
+      <c r="R59" s="5">
+        <v>12</v>
+      </c>
+      <c r="S59" s="5">
+        <v>6</v>
+      </c>
+      <c r="T59" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60">
+        <v>53</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5">
+        <v>7</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5">
+        <v>5</v>
+      </c>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5">
+        <v>3</v>
+      </c>
+      <c r="K60" s="5">
+        <v>6</v>
+      </c>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5">
+        <v>2</v>
+      </c>
+      <c r="N60" s="5">
+        <v>9</v>
+      </c>
+      <c r="O60" s="6">
+        <v>8</v>
+      </c>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5">
+        <v>1</v>
+      </c>
+      <c r="R60" s="5">
+        <v>10</v>
+      </c>
+      <c r="S60" s="5">
+        <v>4</v>
+      </c>
+      <c r="T60" s="5"/>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61">
+        <v>54</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5">
+        <v>9</v>
+      </c>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5">
+        <v>10</v>
+      </c>
+      <c r="J61" s="5">
+        <v>8</v>
+      </c>
+      <c r="K61" s="5">
+        <v>1</v>
+      </c>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5">
+        <v>4</v>
+      </c>
+      <c r="N61" s="5">
+        <v>6</v>
+      </c>
+      <c r="O61" s="6">
+        <v>5</v>
+      </c>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5">
+        <v>2</v>
+      </c>
+      <c r="R61" s="5">
+        <v>7</v>
+      </c>
+      <c r="S61" s="5">
+        <v>3</v>
+      </c>
+      <c r="T61" s="5"/>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62">
+        <v>55</v>
+      </c>
+      <c r="D62" s="5">
+        <v>6</v>
+      </c>
+      <c r="E62" s="5">
+        <v>9</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1</v>
+      </c>
+      <c r="G62" s="5">
+        <v>2</v>
+      </c>
+      <c r="H62" s="5">
+        <v>4</v>
+      </c>
+      <c r="I62" s="5">
+        <v>5</v>
+      </c>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5">
+        <v>8</v>
+      </c>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5">
+        <v>10</v>
+      </c>
+      <c r="O62" s="6"/>
+      <c r="P62" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63">
+        <v>56</v>
+      </c>
+      <c r="D63" s="5">
+        <v>5</v>
+      </c>
+      <c r="E63" s="5">
+        <v>2</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5">
+        <v>8</v>
+      </c>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5">
+        <v>7</v>
+      </c>
+      <c r="N63" s="5">
+        <v>4</v>
+      </c>
+      <c r="O63" s="6">
+        <v>1</v>
+      </c>
+      <c r="P63" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>9</v>
+      </c>
+      <c r="R63" s="5">
+        <v>3</v>
+      </c>
+      <c r="S63" s="5">
+        <v>10</v>
+      </c>
+      <c r="T63" s="5"/>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64">
+        <v>57</v>
+      </c>
+      <c r="D64" s="5">
+        <v>6</v>
+      </c>
+      <c r="E64" s="5">
+        <v>9</v>
+      </c>
+      <c r="F64" s="5">
+        <v>3</v>
+      </c>
+      <c r="G64" s="5">
+        <v>1</v>
+      </c>
+      <c r="H64" s="5">
+        <v>5</v>
+      </c>
+      <c r="I64" s="5">
+        <v>4</v>
+      </c>
+      <c r="J64" s="5">
+        <v>11</v>
+      </c>
+      <c r="K64" s="5">
+        <v>10</v>
+      </c>
+      <c r="L64" s="5">
+        <v>7</v>
+      </c>
+      <c r="M64" s="5">
+        <v>8</v>
+      </c>
+      <c r="N64" s="5"/>
+      <c r="O64" s="6">
+        <v>2</v>
+      </c>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65">
+        <v>58</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5">
+        <v>8</v>
+      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5">
+        <v>9</v>
+      </c>
+      <c r="I65" s="5">
+        <v>10</v>
+      </c>
+      <c r="J65" s="5">
+        <v>4</v>
+      </c>
+      <c r="K65" s="5">
+        <v>3</v>
+      </c>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5">
+        <v>5</v>
+      </c>
+      <c r="N65" s="5">
+        <v>6</v>
+      </c>
+      <c r="O65" s="6"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5">
+        <v>2</v>
+      </c>
+      <c r="R65" s="5">
+        <v>7</v>
+      </c>
+      <c r="S65" s="5">
+        <v>1</v>
+      </c>
+      <c r="T65" s="5"/>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66">
+        <v>59</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5">
+        <v>2</v>
+      </c>
+      <c r="F66" s="5">
+        <v>3</v>
+      </c>
+      <c r="G66" s="5">
+        <v>7</v>
+      </c>
+      <c r="H66" s="5">
+        <v>5</v>
+      </c>
+      <c r="I66" s="5">
+        <v>9</v>
+      </c>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5">
+        <v>6</v>
+      </c>
+      <c r="L66" s="5">
+        <v>1</v>
+      </c>
+      <c r="M66" s="5">
+        <v>10</v>
+      </c>
+      <c r="N66" s="5"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67">
+        <v>60</v>
+      </c>
+      <c r="D67" s="5">
+        <v>8</v>
+      </c>
+      <c r="E67" s="5">
+        <v>7</v>
+      </c>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5">
+        <v>6</v>
+      </c>
+      <c r="H67" s="5">
+        <v>9</v>
+      </c>
+      <c r="I67" s="5">
+        <v>4</v>
+      </c>
+      <c r="J67" s="5">
+        <v>10</v>
+      </c>
+      <c r="K67" s="5">
+        <v>3</v>
+      </c>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5">
+        <v>2</v>
+      </c>
+      <c r="N67" s="5"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5">
+        <v>1</v>
+      </c>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5">
+        <v>5</v>
+      </c>
+      <c r="T67" s="5"/>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68">
+        <v>61</v>
+      </c>
+      <c r="D68" s="5">
+        <v>10</v>
+      </c>
+      <c r="E68" s="5">
+        <v>8</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5">
+        <v>9</v>
+      </c>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5">
+        <v>1</v>
+      </c>
+      <c r="K68" s="5">
+        <v>7</v>
+      </c>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5">
+        <v>6</v>
+      </c>
+      <c r="N68" s="5">
+        <v>2</v>
+      </c>
+      <c r="O68" s="6">
+        <v>4</v>
+      </c>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5">
+        <v>3</v>
+      </c>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5">
+        <v>5</v>
+      </c>
+      <c r="T68" s="5"/>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69">
+        <v>62</v>
+      </c>
+      <c r="D69" s="5">
+        <v>7</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5">
+        <v>3</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5">
+        <v>10</v>
+      </c>
+      <c r="I69" s="5">
+        <v>6</v>
+      </c>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5">
+        <v>9</v>
+      </c>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5">
+        <v>5</v>
+      </c>
+      <c r="O69" s="6"/>
+      <c r="P69" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5">
+        <v>8</v>
+      </c>
+      <c r="S69" s="5">
+        <v>4</v>
+      </c>
+      <c r="T69" s="5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/format.xlsx
+++ b/format.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F625970F-410C-8A48-923D-63C9BB9766F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AAD5F6-4C06-4843-8B91-DFF4174012E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
